--- a/pre_data/wheat_yeild_data.xlsx
+++ b/pre_data/wheat_yeild_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\분석프로젝트\drone_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\회사관련\drone_analysis\pre_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACCD7E02-ED30-46E4-8F2C-757E8C6283E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D1963F-2306-467D-B96C-D6A184964AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14317" yWindow="0" windowWidth="14565" windowHeight="17363" xr2:uid="{E163FA88-A362-47DD-974F-50F24C6B06A5}"/>
+    <workbookView xWindow="10740" yWindow="1275" windowWidth="43290" windowHeight="20580" xr2:uid="{E163FA88-A362-47DD-974F-50F24C6B06A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
   <si>
     <t>GJ-W1-01</t>
   </si>
@@ -182,6 +182,46 @@
   </si>
   <si>
     <t>protein</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>field_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GJ-W1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GJ-W2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GJ-W3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GJ-W4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GJ-W5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GJ-W6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GJ-W7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GJ-W8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GJ-W9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -234,7 +274,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -242,6 +282,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -578,517 +621,658 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1173955B-C7EC-4635-BABD-29236AFE678F}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2">
         <v>526</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>12.08</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3">
         <v>348</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>10.1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4">
         <v>276</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>12.74</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5">
         <v>347</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>11.13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6">
         <v>679</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>10.51</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7">
         <v>290</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>11.19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8">
         <v>350</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>11.04</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9">
         <v>554</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>10.72</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10">
         <v>341</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>11.47</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
         <v>509</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>11.19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
         <v>240</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <v>13.4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13">
         <v>421</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>12.34</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14">
         <v>400</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>10.039999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15">
         <v>285</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>11.84</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16">
         <v>648</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>11.66</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17">
         <v>330</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D17" s="2">
         <v>12.47</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18">
         <v>251</v>
       </c>
-      <c r="C18" s="2">
+      <c r="D18" s="2">
         <v>12.41</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19">
         <v>169</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>11.26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20">
         <v>281</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>11.87</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21">
         <v>309</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>11.41</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22">
         <v>235</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>11.48</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23">
         <v>453</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>10.91</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24">
         <v>156</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>10.86</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25">
         <v>186</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>11.14</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26">
         <v>326</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>11.82</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27">
         <v>367</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>10.31</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28">
         <v>327</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>11.18</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29">
         <v>315</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>10.16</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30">
         <v>330</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31">
         <v>243</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>11.99</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32">
         <v>319</v>
       </c>
-      <c r="C32" s="2">
+      <c r="D32" s="2">
         <v>12.81</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33">
         <v>368</v>
       </c>
-      <c r="C33" s="2">
+      <c r="D33" s="2">
         <v>12.21</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34">
         <v>416</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>9.9700000000000006</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35">
         <v>269</v>
       </c>
-      <c r="C35" s="2">
+      <c r="D35" s="2">
         <v>12.89</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36">
         <v>444</v>
       </c>
-      <c r="C36" s="2">
+      <c r="D36" s="2">
         <v>12.63</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37">
         <v>292</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>11.37</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38">
         <v>203</v>
       </c>
-      <c r="C38" s="2">
+      <c r="D38" s="2">
         <v>12.86</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39">
         <v>374</v>
       </c>
-      <c r="C39" s="2">
+      <c r="D39" s="2">
         <v>12.06</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40">
         <v>491</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>11.19</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41">
         <v>348</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>12.4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42">
         <v>161</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>11.82</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43">
         <v>215</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>11.73</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44">
         <v>342</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>9.82</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45">
         <v>447</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>10.77</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46">
         <v>157</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>13.09</v>
       </c>
     </row>
